--- a/Documents/3. 설계/2. 스토리보드/StoryBoard_상품관리-2.xlsx
+++ b/Documents/3. 설계/2. 스토리보드/StoryBoard_상품관리-2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenTeamProjectFirst\Documents\3. 설계\2. 스토리보드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1C7B26-988C-4244-8244-A68D9A940B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA37627D-205D-417B-B573-362EE64D20A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A015A089-4ACC-438F-ABB9-DD99B28F9501}"/>
   </bookViews>
   <sheets>
-    <sheet name="Goods_후기추가" sheetId="1" r:id="rId1"/>
+    <sheet name="Product_후기추가" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -615,6 +615,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,6 +642,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,63 +700,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,26 +1306,26 @@
   <sheetData>
     <row r="3" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E5" s="17"/>
@@ -1345,7 +1345,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
-      <c r="V5" s="19"/>
+      <c r="V5" s="21"/>
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E6" s="17"/>
@@ -1365,27 +1365,27 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
-      <c r="V6" s="19"/>
+      <c r="V6" s="21"/>
     </row>
     <row r="7" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
@@ -1406,190 +1406,190 @@
         <v>4</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35" t="s">
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35" t="s">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35" t="s">
+      <c r="T8" s="28"/>
+      <c r="U8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="36"/>
+      <c r="V8" s="29"/>
     </row>
     <row r="9" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="39"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
       <c r="O9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="47"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="40"/>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="30"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="42"/>
     </row>
     <row r="11" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="30"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="42"/>
     </row>
     <row r="12" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="29" t="s">
+      <c r="P12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="30"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="42"/>
     </row>
     <row r="13" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="41">
         <v>1000000695</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="30"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="42"/>
     </row>
     <row r="14" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="29" t="s">
+      <c r="P14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="30"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="42"/>
     </row>
     <row r="15" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="P15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="32"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="44"/>
       <c r="U15" s="8" t="s">
         <v>21</v>
       </c>
@@ -1598,50 +1598,50 @@
       </c>
     </row>
     <row r="16" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="29" t="s">
+      <c r="P16" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="30"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="42"/>
     </row>
     <row r="17" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="20" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="24"/>
     </row>
     <row r="18" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E18" s="17" t="s">
@@ -1656,14 +1656,14 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="34"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E19" s="17"/>
@@ -1683,7 +1683,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
-      <c r="V19" s="19"/>
+      <c r="V19" s="21"/>
     </row>
     <row r="20" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E20" s="17"/>
@@ -1703,7 +1703,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
-      <c r="V20" s="19"/>
+      <c r="V20" s="21"/>
     </row>
     <row r="21" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E21" s="17"/>
@@ -1723,27 +1723,27 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
-      <c r="V21" s="19"/>
+      <c r="V21" s="21"/>
     </row>
     <row r="22" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24"/>
     </row>
     <row r="23" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E23" s="11"/>
@@ -1755,21 +1755,21 @@
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E25" s="11"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="25"/>
-      <c r="S25" s="23" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
+      <c r="S25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="T25" s="25"/>
+      <c r="T25" s="27"/>
       <c r="V25" s="12"/>
     </row>
     <row r="26" spans="5:22" x14ac:dyDescent="0.3">
@@ -1784,26 +1784,26 @@
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
-      <c r="Q26" s="19"/>
+      <c r="Q26" s="21"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="19"/>
+      <c r="T26" s="21"/>
       <c r="V26" s="12"/>
     </row>
     <row r="27" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="11"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="24"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="24"/>
       <c r="V27" s="12"/>
     </row>
     <row r="28" spans="5:22" x14ac:dyDescent="0.3">
@@ -1816,25 +1816,25 @@
     </row>
     <row r="30" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E30" s="11"/>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="27"/>
+      <c r="H30" s="46"/>
       <c r="V30" s="12"/>
     </row>
     <row r="31" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="11"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="27"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="46"/>
       <c r="S31" s="13" t="s">
         <v>28</v>
       </c>
@@ -1849,25 +1849,25 @@
     </row>
     <row r="33" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33" s="11"/>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="27"/>
+      <c r="H33" s="46"/>
       <c r="V33" s="12"/>
     </row>
     <row r="34" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="11"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="27"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="46"/>
       <c r="V34" s="12"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.3">
@@ -1922,7 +1922,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="19"/>
+      <c r="V39" s="21"/>
     </row>
     <row r="40" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E40" s="17"/>
@@ -1942,7 +1942,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="19"/>
+      <c r="V40" s="21"/>
     </row>
     <row r="41" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E41" s="17"/>
@@ -1962,30 +1962,37 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
       <c r="U41" s="18"/>
-      <c r="V41" s="19"/>
+      <c r="V41" s="21"/>
     </row>
     <row r="42" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E39:V42"/>
+    <mergeCell ref="G25:Q27"/>
+    <mergeCell ref="S25:T27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:Q31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:Q34"/>
     <mergeCell ref="E18:V22"/>
     <mergeCell ref="E4:V7"/>
     <mergeCell ref="O8:P8"/>
@@ -2002,13 +2009,6 @@
     <mergeCell ref="P15:T15"/>
     <mergeCell ref="P16:V16"/>
     <mergeCell ref="O17:V17"/>
-    <mergeCell ref="E39:V42"/>
-    <mergeCell ref="G25:Q27"/>
-    <mergeCell ref="S25:T27"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:Q31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:Q34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/3. 설계/2. 스토리보드/StoryBoard_상품관리-2.xlsx
+++ b/Documents/3. 설계/2. 스토리보드/StoryBoard_상품관리-2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenTeamProjectFirst\Documents\3. 설계\2. 스토리보드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA37627D-205D-417B-B573-362EE64D20A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1C7B26-988C-4244-8244-A68D9A940B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A015A089-4ACC-438F-ABB9-DD99B28F9501}"/>
   </bookViews>
   <sheets>
-    <sheet name="Product_후기추가" sheetId="1" r:id="rId1"/>
+    <sheet name="Goods_후기추가" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -615,33 +615,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,27 +700,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,26 +1306,26 @@
   <sheetData>
     <row r="3" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="27"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="25"/>
     </row>
     <row r="5" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E5" s="17"/>
@@ -1345,7 +1345,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
-      <c r="V5" s="21"/>
+      <c r="V5" s="19"/>
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E6" s="17"/>
@@ -1365,27 +1365,27 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
-      <c r="V6" s="21"/>
+      <c r="V6" s="19"/>
     </row>
     <row r="7" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="24"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="22"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
@@ -1406,190 +1406,190 @@
         <v>4</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28" t="s">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28" t="s">
+      <c r="R8" s="35"/>
+      <c r="S8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28" t="s">
+      <c r="T8" s="35"/>
+      <c r="U8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="29"/>
+      <c r="V8" s="36"/>
     </row>
     <row r="9" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="32"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="40"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="47"/>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="41" t="s">
+      <c r="P10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="42"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="30"/>
     </row>
     <row r="11" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="41" t="s">
+      <c r="P11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="42"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="30"/>
     </row>
     <row r="12" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="41" t="s">
+      <c r="P12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="42"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="30"/>
     </row>
     <row r="13" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="35"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
       <c r="O13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="29">
         <v>1000000695</v>
       </c>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="42"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="30"/>
     </row>
     <row r="14" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="41" t="s">
+      <c r="P14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="42"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="30"/>
     </row>
     <row r="15" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
       <c r="O15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="43" t="s">
+      <c r="P15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="44"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="32"/>
       <c r="U15" s="8" t="s">
         <v>21</v>
       </c>
@@ -1598,50 +1598,50 @@
       </c>
     </row>
     <row r="16" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="35"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
       <c r="O16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="41" t="s">
+      <c r="P16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="42"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="30"/>
     </row>
     <row r="17" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="22" t="s">
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="24"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="22"/>
     </row>
     <row r="18" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E18" s="17" t="s">
@@ -1656,14 +1656,14 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="20"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="34"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E19" s="17"/>
@@ -1683,7 +1683,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
-      <c r="V19" s="21"/>
+      <c r="V19" s="19"/>
     </row>
     <row r="20" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E20" s="17"/>
@@ -1703,7 +1703,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
-      <c r="V20" s="21"/>
+      <c r="V20" s="19"/>
     </row>
     <row r="21" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E21" s="17"/>
@@ -1723,27 +1723,27 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
-      <c r="V21" s="21"/>
+      <c r="V21" s="19"/>
     </row>
     <row r="22" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="24"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="22"/>
     </row>
     <row r="23" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E23" s="11"/>
@@ -1755,21 +1755,21 @@
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E25" s="11"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="27"/>
-      <c r="S25" s="25" t="s">
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="25"/>
+      <c r="S25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="T25" s="27"/>
+      <c r="T25" s="25"/>
       <c r="V25" s="12"/>
     </row>
     <row r="26" spans="5:22" x14ac:dyDescent="0.3">
@@ -1784,26 +1784,26 @@
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
-      <c r="Q26" s="21"/>
+      <c r="Q26" s="19"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="21"/>
+      <c r="T26" s="19"/>
       <c r="V26" s="12"/>
     </row>
     <row r="27" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="11"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="24"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="24"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="22"/>
       <c r="V27" s="12"/>
     </row>
     <row r="28" spans="5:22" x14ac:dyDescent="0.3">
@@ -1816,25 +1816,25 @@
     </row>
     <row r="30" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E30" s="11"/>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="46"/>
+      <c r="H30" s="27"/>
       <c r="V30" s="12"/>
     </row>
     <row r="31" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="11"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="46"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="27"/>
       <c r="S31" s="13" t="s">
         <v>28</v>
       </c>
@@ -1849,25 +1849,25 @@
     </row>
     <row r="33" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33" s="11"/>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="46"/>
+      <c r="H33" s="27"/>
       <c r="V33" s="12"/>
     </row>
     <row r="34" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="11"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="46"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="27"/>
       <c r="V34" s="12"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.3">
@@ -1922,7 +1922,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="21"/>
+      <c r="V39" s="19"/>
     </row>
     <row r="40" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E40" s="17"/>
@@ -1942,7 +1942,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="21"/>
+      <c r="V40" s="19"/>
     </row>
     <row r="41" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E41" s="17"/>
@@ -1962,37 +1962,30 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
       <c r="U41" s="18"/>
-      <c r="V41" s="21"/>
+      <c r="V41" s="19"/>
     </row>
     <row r="42" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="24"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E39:V42"/>
-    <mergeCell ref="G25:Q27"/>
-    <mergeCell ref="S25:T27"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:Q31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:Q34"/>
     <mergeCell ref="E18:V22"/>
     <mergeCell ref="E4:V7"/>
     <mergeCell ref="O8:P8"/>
@@ -2009,6 +2002,13 @@
     <mergeCell ref="P15:T15"/>
     <mergeCell ref="P16:V16"/>
     <mergeCell ref="O17:V17"/>
+    <mergeCell ref="E39:V42"/>
+    <mergeCell ref="G25:Q27"/>
+    <mergeCell ref="S25:T27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:Q31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:Q34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
